--- a/artfynd/A 73935-2021.xlsx
+++ b/artfynd/A 73935-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99019545</v>
+        <v>103417731</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>85703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Grubbdalen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>443503.4304674634</v>
+        <v>445245.8173556555</v>
       </c>
       <c r="R2" t="n">
-        <v>7098401.908944439</v>
+        <v>7097773.135857749</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -800,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103672752</v>
+        <v>103417728</v>
       </c>
       <c r="B3" t="n">
-        <v>95519</v>
+        <v>96367</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>219874</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Klockansexklumpen, 0,8 km NV om bergets högsta topp, Jmt</t>
+          <t>Grubbdalen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>441744.0179928062</v>
+        <v>445495.23774881</v>
       </c>
       <c r="R3" t="n">
-        <v>7098671.677853395</v>
+        <v>7097109.525726979</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -880,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,31 +888,26 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Fjällbarrskog</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ola Löfgren</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103417728</v>
+        <v>103417724</v>
       </c>
       <c r="B4" t="n">
-        <v>96367</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +916,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219874</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Grubbdalen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445495.23774881</v>
+        <v>445576.2097941383</v>
       </c>
       <c r="R4" t="n">
-        <v>7097109.525726979</v>
+        <v>7097165.613693597</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,6 +998,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103417724</v>
+        <v>103417723</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1067,7 +1067,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445576.2097941383</v>
+        <v>445600.0264993102</v>
       </c>
       <c r="R5" t="n">
-        <v>7097165.613693597</v>
+        <v>7097119.986368139</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103417723</v>
+        <v>103417726</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445600.0264993102</v>
+        <v>445505.6395759351</v>
       </c>
       <c r="R6" t="n">
-        <v>7097119.986368139</v>
+        <v>7097075.983257764</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103417731</v>
+        <v>99019545</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,34 +1295,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Grubbdalen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445245.8173556555</v>
+        <v>443503.4304674634</v>
       </c>
       <c r="R7" t="n">
-        <v>7097773.135857749</v>
+        <v>7098401.908944439</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1349,7 +1357,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1359,7 +1367,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1391,10 +1399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103417726</v>
+        <v>103672752</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>95519</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1403,46 +1411,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Grubbdalen, Jmt</t>
+          <t>Klockansexklumpen, 0,8 km NV om bergets högsta topp, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445505.6395759351</v>
+        <v>441744.0179928062</v>
       </c>
       <c r="R8" t="n">
-        <v>7097075.983257764</v>
+        <v>7098671.677853395</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1487,11 +1487,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1500,16 +1495,21 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Fjällbarrskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Ola Löfgren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
